--- a/old/Data/thanld2.xlsx
+++ b/old/Data/thanld2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">ĐẠI HỌC QUỐC GIA HÀ NỘI</t>
   </si>
@@ -58,13 +58,13 @@
     <t xml:space="preserve">Giảng đường:</t>
   </si>
   <si>
-    <t xml:space="preserve">305-G2</t>
+    <t xml:space="preserve">304-G2</t>
   </si>
   <si>
     <t xml:space="preserve">Lớp môn học:</t>
   </si>
   <si>
-    <t xml:space="preserve">MAT1104 1</t>
+    <t xml:space="preserve">INT3308 1</t>
   </si>
   <si>
     <t xml:space="preserve">Số tín chỉ:</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Môn học:</t>
   </si>
   <si>
-    <t xml:space="preserve">Phát triển ứng dụng Web</t>
+    <t xml:space="preserve">An toan thong tin mang</t>
   </si>
   <si>
     <t xml:space="preserve">STT</t>
@@ -109,13 +109,16 @@
     <t xml:space="preserve">10/01/1998</t>
   </si>
   <si>
-    <t xml:space="preserve">QH-2017-I/CQ-N</t>
+    <t xml:space="preserve">QH-2016-I/CQ-N</t>
   </si>
   <si>
     <t xml:space="preserve">Hoàng Văn Chính</t>
   </si>
   <si>
     <t xml:space="preserve">25/01/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QH-2016-I/CQ-C-C</t>
   </si>
   <si>
     <t xml:space="preserve">Hà Nội, Ngày 08 tháng 09 năm 2018</t>
@@ -313,13 +316,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
@@ -382,6 +385,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>6</v>
@@ -459,7 +463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
         <v>1</v>
       </c>
@@ -482,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="n">
-        <v>17021554</v>
+        <v>16021554</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>27</v>
@@ -500,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="11" t="n">
-        <v>17020855</v>
+        <v>16020855</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>30</v>
@@ -509,45 +513,49 @@
         <v>31</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -618,16 +626,10 @@
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1442,87 +1444,87 @@
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:C1"/>
@@ -1536,11 +1538,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
